--- a/LoopGame/LoopGame/Content/csv/Stage02.xlsx
+++ b/LoopGame/LoopGame/Content/csv/Stage02.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="11808" windowHeight="8064"/>
   </bookViews>
   <sheets>
-    <sheet name="TestStage05" sheetId="1" r:id="rId1"/>
+    <sheet name="Stage02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,6 +21,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -387,7 +391,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -477,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -527,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -574,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -603,10 +607,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -653,10 +657,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -706,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -753,10 +757,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>1</v>
